--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="803">
   <si>
     <t>Title</t>
   </si>
@@ -2471,6 +2471,27 @@
   </si>
   <si>
     <t>Risk_AutomationData_GenericUploader</t>
+  </si>
+  <si>
+    <t>68464</t>
+  </si>
+  <si>
+    <t>10546</t>
+  </si>
+  <si>
+    <t>90909</t>
+  </si>
+  <si>
+    <t>84080</t>
+  </si>
+  <si>
+    <t>21584</t>
+  </si>
+  <si>
+    <t>81825</t>
+  </si>
+  <si>
+    <t>81003</t>
   </si>
 </sst>
 </file>
@@ -3407,11 +3428,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.77734375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="4" width="59.44140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.21875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.77734375" collapsed="false"/>
-    <col min="5" max="16384" style="6" width="8.77734375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="6" width="8.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3859,12 +3880,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="39.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.21875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="49.77734375" collapsed="false"/>
-    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="false"/>
-    <col min="6" max="11" customWidth="true" style="3" width="9.21875" collapsed="false"/>
-    <col min="12" max="16384" style="3" width="9.21875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="39.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="49.77734375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="6" max="11" customWidth="true" style="3" width="9.21875" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9370,43 +9391,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.77734375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.44140625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="16.5546875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.21875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.21875" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.5546875" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.44140625" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.77734375" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="9.77734375" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.5546875" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.21875" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="14.77734375" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="33.0" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="30.5546875" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="28.77734375" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="28.77734375" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="34.77734375" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="32.21875" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="30.44140625" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="17.5546875" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="16.77734375" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="25.5546875" collapsed="false"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="29.0" collapsed="false"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="28.77734375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="16.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.77734375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="28.77734375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="30.44140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="28.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.3">
@@ -9605,7 +9626,7 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="27" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="808">
   <si>
     <t>Title</t>
   </si>
@@ -2492,6 +2492,21 @@
   </si>
   <si>
     <t>81003</t>
+  </si>
+  <si>
+    <t>95214</t>
+  </si>
+  <si>
+    <t>83505</t>
+  </si>
+  <si>
+    <t>80012</t>
+  </si>
+  <si>
+    <t>95814</t>
+  </si>
+  <si>
+    <t>60239</t>
   </si>
 </sst>
 </file>
@@ -9626,7 +9641,7 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="27" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="777">
   <si>
     <t>Title</t>
   </si>
@@ -2844,6 +2844,12 @@
   </si>
   <si>
     <t>91778</t>
+  </si>
+  <si>
+    <t>19752</t>
+  </si>
+  <si>
+    <t>93356</t>
   </si>
 </sst>
 </file>
@@ -8526,7 +8532,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="779">
   <si>
     <t>Title</t>
   </si>
@@ -2850,6 +2850,12 @@
   </si>
   <si>
     <t>93356</t>
+  </si>
+  <si>
+    <t>81540</t>
+  </si>
+  <si>
+    <t>36821</t>
   </si>
 </sst>
 </file>
@@ -8532,7 +8538,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="780">
   <si>
     <t>Title</t>
   </si>
@@ -2856,6 +2856,9 @@
   </si>
   <si>
     <t>36821</t>
+  </si>
+  <si>
+    <t>87300</t>
   </si>
 </sst>
 </file>
@@ -8538,7 +8541,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="782">
   <si>
     <t>Title</t>
   </si>
@@ -2859,6 +2859,12 @@
   </si>
   <si>
     <t>87300</t>
+  </si>
+  <si>
+    <t>67635</t>
+  </si>
+  <si>
+    <t>34383</t>
   </si>
 </sst>
 </file>
@@ -8541,7 +8547,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="784">
   <si>
     <t>Title</t>
   </si>
@@ -2865,6 +2865,12 @@
   </si>
   <si>
     <t>34383</t>
+  </si>
+  <si>
+    <t>94397</t>
+  </si>
+  <si>
+    <t>59334</t>
   </si>
 </sst>
 </file>
@@ -8547,7 +8553,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="785">
   <si>
     <t>Title</t>
   </si>
@@ -2871,6 +2871,9 @@
   </si>
   <si>
     <t>59334</t>
+  </si>
+  <si>
+    <t>58133</t>
   </si>
 </sst>
 </file>
@@ -8553,7 +8556,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="786">
   <si>
     <t>Title</t>
   </si>
@@ -2874,6 +2874,9 @@
   </si>
   <si>
     <t>58133</t>
+  </si>
+  <si>
+    <t>79685</t>
   </si>
 </sst>
 </file>
@@ -8556,7 +8559,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="791">
   <si>
     <t>Title</t>
   </si>
@@ -2877,6 +2877,21 @@
   </si>
   <si>
     <t>79685</t>
+  </si>
+  <si>
+    <t>97121</t>
+  </si>
+  <si>
+    <t>59067</t>
+  </si>
+  <si>
+    <t>31312</t>
+  </si>
+  <si>
+    <t>11521</t>
+  </si>
+  <si>
+    <t>33308</t>
   </si>
 </sst>
 </file>
@@ -8559,7 +8574,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="792">
   <si>
     <t>Title</t>
   </si>
@@ -2892,6 +2892,9 @@
   </si>
   <si>
     <t>33308</t>
+  </si>
+  <si>
+    <t>27693</t>
   </si>
 </sst>
 </file>
@@ -8574,7 +8577,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="794">
   <si>
     <t>Title</t>
   </si>
@@ -2895,6 +2895,12 @@
   </si>
   <si>
     <t>27693</t>
+  </si>
+  <si>
+    <t>69711</t>
+  </si>
+  <si>
+    <t>60623</t>
   </si>
 </sst>
 </file>
@@ -8577,7 +8583,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="805">
   <si>
     <t>Title</t>
   </si>
@@ -2901,6 +2901,39 @@
   </si>
   <si>
     <t>60623</t>
+  </si>
+  <si>
+    <t>90729</t>
+  </si>
+  <si>
+    <t>98633</t>
+  </si>
+  <si>
+    <t>56850</t>
+  </si>
+  <si>
+    <t>44403</t>
+  </si>
+  <si>
+    <t>33847</t>
+  </si>
+  <si>
+    <t>81767</t>
+  </si>
+  <si>
+    <t>87948</t>
+  </si>
+  <si>
+    <t>76832</t>
+  </si>
+  <si>
+    <t>93836</t>
+  </si>
+  <si>
+    <t>47795</t>
+  </si>
+  <si>
+    <t>60978</t>
   </si>
 </sst>
 </file>
@@ -8583,7 +8616,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="806">
   <si>
     <t>Title</t>
   </si>
@@ -2934,6 +2934,9 @@
   </si>
   <si>
     <t>60978</t>
+  </si>
+  <si>
+    <t>46336</t>
   </si>
 </sst>
 </file>
@@ -8616,7 +8619,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Risk.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="831">
   <si>
     <t>Title</t>
   </si>
@@ -2937,6 +2937,81 @@
   </si>
   <si>
     <t>46336</t>
+  </si>
+  <si>
+    <t>91617</t>
+  </si>
+  <si>
+    <t>54886</t>
+  </si>
+  <si>
+    <t>24603</t>
+  </si>
+  <si>
+    <t>46122</t>
+  </si>
+  <si>
+    <t>81366</t>
+  </si>
+  <si>
+    <t>60200</t>
+  </si>
+  <si>
+    <t>64707</t>
+  </si>
+  <si>
+    <t>29181</t>
+  </si>
+  <si>
+    <t>76514</t>
+  </si>
+  <si>
+    <t>58173</t>
+  </si>
+  <si>
+    <t>95629</t>
+  </si>
+  <si>
+    <t>28454</t>
+  </si>
+  <si>
+    <t>69485</t>
+  </si>
+  <si>
+    <t>46422</t>
+  </si>
+  <si>
+    <t>64212</t>
+  </si>
+  <si>
+    <t>56298</t>
+  </si>
+  <si>
+    <t>83615</t>
+  </si>
+  <si>
+    <t>18263</t>
+  </si>
+  <si>
+    <t>16962</t>
+  </si>
+  <si>
+    <t>38962</t>
+  </si>
+  <si>
+    <t>94860</t>
+  </si>
+  <si>
+    <t>26394</t>
+  </si>
+  <si>
+    <t>49697</t>
+  </si>
+  <si>
+    <t>52271</t>
+  </si>
+  <si>
+    <t>87459</t>
   </si>
 </sst>
 </file>
@@ -8619,7 +8694,7 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>805</v>
+        <v>830</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="19" t="s">
